--- a/path_to_file.xlsx
+++ b/path_to_file.xlsx
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Foo</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Bar</t>
+          <t>Email</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Niya Shroff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XYZ</t>
+          <t>shroffniya@gmail.com</t>
         </is>
       </c>
     </row>
